--- a/GenAI.xlsx
+++ b/GenAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91956\OneDrive\DATA-SCIENCE-NARESHIT-OMKAR\GITHUB\GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050E308-70CC-43C4-A91D-D6EF99647C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C997AE-D2D1-45F8-ACB2-8C137346E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>S.NO</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>Text  Search/Query using Gemini AI with Streamlit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gemini</t>
+  </si>
+  <si>
+    <t>Document search with embeddings - Base using Jupyter Notebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +102,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,6 +175,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +459,7 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,9 +586,15 @@
       <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="4">

--- a/GenAI.xlsx
+++ b/GenAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91956\OneDrive\DATA-SCIENCE-NARESHIT-OMKAR\GITHUB\GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C997AE-D2D1-45F8-ACB2-8C137346E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD714D27-7792-407A-BA1E-AB365AF1B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>S.NO</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Document search with embeddings - Base using Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>Chroma + LangChain + RAG + Text</t>
+  </si>
+  <si>
+    <t>Chroma + LangChain + RAG + PDF</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,17 +606,29 @@
       <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="4">

--- a/GenAI.xlsx
+++ b/GenAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91956\OneDrive\DATA-SCIENCE-NARESHIT-OMKAR\GITHUB\GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD714D27-7792-407A-BA1E-AB365AF1B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C0A892-0B0B-42EB-AEC1-55D3524F8624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>S.NO</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Chroma + LangChain + RAG + PDF</t>
+  </si>
+  <si>
+    <t>Masked Language Modeling using BERT mutiple model</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,9 +637,15 @@
       <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="4">

--- a/GenAI.xlsx
+++ b/GenAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91956\OneDrive\DATA-SCIENCE-NARESHIT-OMKAR\GITHUB\GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C0A892-0B0B-42EB-AEC1-55D3524F8624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39DDBCD-B854-44E4-AC4C-DE8A94161E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>S.NO</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>Masked Language Modeling using BERT mutiple model</t>
+  </si>
+  <si>
+    <t>OpenCV+ Yolo</t>
+  </si>
+  <si>
+    <t>Yolo V3 - Object - Dectection using streamlit</t>
+  </si>
+  <si>
+    <t>Text Classification + Gemini Embeddings</t>
+  </si>
+  <si>
+    <t>Gemini AI + Embeddings</t>
+  </si>
+  <si>
+    <t>Gemini Chat Bot</t>
+  </si>
+  <si>
+    <t>Invoice Information Extracting + Streamlit</t>
   </si>
 </sst>
 </file>
@@ -468,14 +486,14 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -651,33 +669,57 @@
       <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
